--- a/excelData.xlsx
+++ b/excelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucliss/Documents/repos/rechnungSkript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucliss/Documents/repos/rechnungMARSters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A296E8F-B80E-5949-B2D0-A80548100AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DECCA9-30DB-114E-9CAF-9F7FD5355751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="7720" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
+    <workbookView xWindow="1760" yWindow="2260" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>Netzwerktechnik-Spezialist</t>
   </si>
   <si>
-    <t>Projektleitung &amp; Planung</t>
-  </si>
-  <si>
     <t>Hardwareinstallation (Roboterteam)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Summe netto</t>
+  </si>
+  <si>
+    <t>Projektleitung und Planung</t>
   </si>
 </sst>
 </file>
@@ -671,12 +671,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +683,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4358DD47-7E6D-DD40-92A6-39C8C7C2E111}">
   <dimension ref="A4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,18 +1061,18 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="H6" s="44" t="s">
+      <c r="F6" s="49"/>
+      <c r="H6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="42" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1089,10 +1089,10 @@
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="42" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1110,10 +1110,10 @@
         <f>H72 *1.2</f>
         <v>10080</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1221,14 +1221,14 @@
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1812,16 +1812,16 @@
       <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C74" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1829,71 +1829,71 @@
       <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="44">
         <v>150</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="45">
         <v>1200</v>
       </c>
-      <c r="D75" s="47">
+      <c r="D75" s="45">
         <f>B75*C75</f>
         <v>180000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="46">
-        <v>80</v>
-      </c>
-      <c r="C76" s="46">
+        <v>74</v>
+      </c>
+      <c r="B76" s="44">
+        <v>85</v>
+      </c>
+      <c r="C76" s="44">
         <v>900</v>
       </c>
-      <c r="D76" s="47">
+      <c r="D76" s="45">
         <f>B76*C76</f>
-        <v>72000</v>
+        <v>76500</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="46">
+        <v>71</v>
+      </c>
+      <c r="B77" s="44">
         <v>300</v>
       </c>
-      <c r="C77" s="46">
+      <c r="C77" s="44">
         <v>600</v>
       </c>
-      <c r="D77" s="47">
+      <c r="D77" s="45">
         <f>B77*C77</f>
         <v>180000</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="46">
+        <v>72</v>
+      </c>
+      <c r="B78" s="44">
         <v>200</v>
       </c>
-      <c r="C78" s="47">
+      <c r="C78" s="45">
         <v>1000</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D78" s="45">
         <f>B78*C78</f>
         <v>200000</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="49">
+      <c r="A79" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="47">
         <f>D75+D76+D77+D78</f>
-        <v>632000</v>
+        <v>636500</v>
       </c>
     </row>
   </sheetData>

--- a/excelData.xlsx
+++ b/excelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucliss/Documents/repos/rechnungMARSters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DECCA9-30DB-114E-9CAF-9F7FD5355751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCA362-E018-E14E-A2F4-AD43AF66B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2260" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
+    <workbookView xWindow="4920" yWindow="2860" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>1. Quantitativer Vergleich</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Kundenrabatt (in Prozent)</t>
   </si>
   <si>
-    <t>Nettoverkaufspreis</t>
-  </si>
-  <si>
     <t>Umsatzsteuer (in Prozent)</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>Nettobetrag:</t>
   </si>
   <si>
-    <t>sollten wir in der rechnung erwaehnen</t>
-  </si>
-  <si>
     <t>Gewinn in Prozent</t>
   </si>
   <si>
@@ -261,6 +255,15 @@
   </si>
   <si>
     <t>Projektleitung und Planung</t>
+  </si>
+  <si>
+    <t>Kundendaten</t>
+  </si>
+  <si>
+    <t>Nettoverkaufspreis( + Stundensätze)</t>
+  </si>
+  <si>
+    <t>Lieferanten Packetbeschreibung</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4358DD47-7E6D-DD40-92A6-39C8C7C2E111}">
   <dimension ref="A4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1056,9 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1070,10 +1076,10 @@
       </c>
       <c r="F6" s="49"/>
       <c r="H6" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1090,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,10 +1117,10 @@
         <v>10080</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1319,11 +1325,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="22">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="E27" s="20">
         <v>6</v>
@@ -1387,7 +1393,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="24">
         <f>SUM(D24:D29)</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="25">
@@ -1407,7 +1413,7 @@
       </c>
       <c r="B36" s="27" t="str">
         <f>IF(D31=MAX(D31,F31),C21,E21)</f>
-        <v>Lieferant B</v>
+        <v>Lieferant A</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="B41" s="30">
         <f>IF(B36=C6,D14,F14)</f>
-        <v>9190.9440000000013</v>
+        <v>7820.4</v>
       </c>
       <c r="C41" s="31"/>
     </row>
@@ -1439,7 +1445,7 @@
       </c>
       <c r="B42" s="32">
         <f>B41*0.3</f>
-        <v>2757.2832000000003</v>
+        <v>2346.12</v>
       </c>
       <c r="C42" s="34">
         <v>0.3</v>
@@ -1454,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1463,18 +1469,18 @@
       </c>
       <c r="B44" s="30">
         <f>(B41+B42+B43)</f>
-        <v>11948.227200000001</v>
+        <v>10166.52</v>
       </c>
       <c r="C44" s="31"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="32">
         <f>B44 * 0.2</f>
-        <v>2389.6454400000002</v>
+        <v>2033.3040000000001</v>
       </c>
       <c r="C45" s="34">
         <v>0.2</v>
@@ -1487,7 +1493,7 @@
       </c>
       <c r="B46" s="30">
         <f>(B44+B45)</f>
-        <v>14337.872640000001</v>
+        <v>12199.824000000001</v>
       </c>
       <c r="C46" s="31"/>
     </row>
@@ -1497,7 +1503,7 @@
       </c>
       <c r="B47" s="33">
         <f>(B46*0.02)</f>
-        <v>286.75745280000001</v>
+        <v>243.99648000000002</v>
       </c>
       <c r="C47" s="34">
         <v>0.02</v>
@@ -1509,7 +1515,7 @@
       </c>
       <c r="B48" s="33">
         <f>B46*0.01</f>
-        <v>143.37872640000001</v>
+        <v>121.99824000000001</v>
       </c>
       <c r="C48" s="34">
         <v>0.01</v>
@@ -1521,7 +1527,7 @@
       </c>
       <c r="B49" s="30">
         <f>(B46+B47+B48)</f>
-        <v>14768.008819200002</v>
+        <v>12565.818720000001</v>
       </c>
       <c r="C49" s="31"/>
     </row>
@@ -1533,23 +1539,20 @@
         <v>10</v>
       </c>
       <c r="C50" s="34"/>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B51" s="33">
-        <f>B49/((100-B50)/100)</f>
-        <v>16408.898688000001</v>
+        <f>(B49/((100-B50)/100))+D79</f>
+        <v>650462.02080000006</v>
       </c>
       <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="33">
         <v>19</v>
@@ -1558,32 +1561,37 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="33">
         <f>B51*(1+(B52/100))</f>
-        <v>19526.589438719999</v>
+        <v>774049.80475200003</v>
       </c>
       <c r="C53" s="31"/>
+    </row>
+    <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="C60" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="D60" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="E60" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="F60" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1591,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="38">
         <v>0.19</v>
@@ -1612,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="38">
         <v>0.19</v>
@@ -1633,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="38">
         <v>0.19</v>
@@ -1654,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="38">
         <v>0.19</v>
@@ -1675,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="38">
         <v>0.19</v>
@@ -1696,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="38">
         <v>0.19</v>
@@ -1717,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="38">
         <v>0.19</v>
@@ -1738,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="38">
         <v>0.19</v>
@@ -1759,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="38">
         <v>0.19</v>
@@ -1780,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="38">
         <v>0.19</v>
@@ -1798,7 +1806,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="40">
         <f>F61+F62+F63+F64+F65+F66+F67+F68+F69+F70</f>
@@ -1807,27 +1815,27 @@
     </row>
     <row r="73" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>67</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" s="44">
         <v>150</v>
@@ -1842,7 +1850,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="44">
         <v>85</v>
@@ -1857,7 +1865,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B77" s="44">
         <v>300</v>
@@ -1872,7 +1880,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" s="44">
         <v>200</v>
@@ -1887,7 +1895,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -1904,5 +1912,6 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/excelData.xlsx
+++ b/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucliss/Documents/repos/rechnungMARSters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCA362-E018-E14E-A2F4-AD43AF66B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F6E6A3-0468-B34D-8E48-E51C4397F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="2860" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4358DD47-7E6D-DD40-92A6-39C8C7C2E111}">
   <dimension ref="A4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excelData.xlsx
+++ b/excelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucliss/Documents/repos/rechnungMARSters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan.elfeld/Desktop/Repo/rechnungMARSters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCA362-E018-E14E-A2F4-AD43AF66B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FE4D7-EF92-5948-B4BA-04FFDF791B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2860" windowWidth="27640" windowHeight="16860" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
+    <workbookView xWindow="2720" yWindow="22380" windowWidth="34200" windowHeight="21360" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4358DD47-7E6D-DD40-92A6-39C8C7C2E111}">
   <dimension ref="A4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,12 +1109,12 @@
       <c r="C8" s="3"/>
       <c r="D8" s="5">
         <f>H72</f>
-        <v>8400</v>
+        <v>79216.510000000009</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6">
         <f>H72 *1.2</f>
-        <v>10080</v>
+        <v>95059.812000000005</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>61</v>
@@ -1132,14 +1132,14 @@
       </c>
       <c r="D9" s="5">
         <f>(D8*C9)/100</f>
-        <v>420</v>
+        <v>3960.8255000000004</v>
       </c>
       <c r="E9" s="8">
         <v>6</v>
       </c>
       <c r="F9" s="6">
         <f>(F8*E9)/100</f>
-        <v>604.79999999999995</v>
+        <v>5703.5887199999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1149,12 +1149,12 @@
       <c r="C10" s="3"/>
       <c r="D10" s="5">
         <f>D8-D9</f>
-        <v>7980</v>
+        <v>75255.684500000003</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
         <f>F8-F9</f>
-        <v>9475.2000000000007</v>
+        <v>89356.223280000006</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1166,14 +1166,14 @@
       </c>
       <c r="D11" s="5">
         <f>(D10*C11)/100</f>
-        <v>159.6</v>
+        <v>1505.1136900000001</v>
       </c>
       <c r="E11" s="8">
         <v>3</v>
       </c>
       <c r="F11" s="6">
         <f>(F10*E11)/100</f>
-        <v>284.25600000000003</v>
+        <v>2680.6866983999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1183,12 +1183,12 @@
       <c r="C12" s="3"/>
       <c r="D12" s="5">
         <f>D10-D11</f>
-        <v>7820.4</v>
+        <v>73750.570810000005</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6">
         <f>F10-F11</f>
-        <v>9190.9440000000013</v>
+        <v>86675.536581600012</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1207,12 +1207,12 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13">
         <f>D12+D13</f>
-        <v>7820.4</v>
+        <v>73750.570810000005</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15">
         <f>F12+F13</f>
-        <v>9190.9440000000013</v>
+        <v>86675.536581600012</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B41" s="30">
         <f>IF(B36=C6,D14,F14)</f>
-        <v>7820.4</v>
+        <v>73750.570810000005</v>
       </c>
       <c r="C41" s="31"/>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B42" s="32">
         <f>B41*0.3</f>
-        <v>2346.12</v>
+        <v>22125.171243000001</v>
       </c>
       <c r="C42" s="34">
         <v>0.3</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B44" s="30">
         <f>(B41+B42+B43)</f>
-        <v>10166.52</v>
+        <v>95875.742053000009</v>
       </c>
       <c r="C44" s="31"/>
       <c r="E44" s="41"/>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B45" s="32">
         <f>B44 * 0.2</f>
-        <v>2033.3040000000001</v>
+        <v>19175.148410600003</v>
       </c>
       <c r="C45" s="34">
         <v>0.2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B46" s="30">
         <f>(B44+B45)</f>
-        <v>12199.824000000001</v>
+        <v>115050.89046360001</v>
       </c>
       <c r="C46" s="31"/>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B47" s="33">
         <f>(B46*0.02)</f>
-        <v>243.99648000000002</v>
+        <v>2301.0178092720002</v>
       </c>
       <c r="C47" s="34">
         <v>0.02</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B48" s="33">
         <f>B46*0.01</f>
-        <v>121.99824000000001</v>
+        <v>1150.5089046360001</v>
       </c>
       <c r="C48" s="34">
         <v>0.01</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B49" s="30">
         <f>(B46+B47+B48)</f>
-        <v>12565.818720000001</v>
+        <v>118502.417177508</v>
       </c>
       <c r="C49" s="31"/>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B51" s="33">
         <f>(B49/((100-B50)/100))+D79</f>
-        <v>650462.02080000006</v>
+        <v>768169.35241945332</v>
       </c>
       <c r="C51" s="31"/>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B53" s="33">
         <f>B51*(1+(B52/100))</f>
-        <v>774049.80475200003</v>
+        <v>914121.52937914943</v>
       </c>
       <c r="C53" s="31"/>
     </row>
@@ -1605,14 +1605,14 @@
         <v>0.19</v>
       </c>
       <c r="D61" s="39">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="39">
         <f t="shared" ref="F61:F70" si="2">D61*E61</f>
-        <v>1000</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1626,14 +1626,14 @@
         <v>0.19</v>
       </c>
       <c r="D62" s="39">
-        <v>100</v>
+        <v>449.89</v>
       </c>
       <c r="E62" s="37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" s="39">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>3599.12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,14 +1647,14 @@
         <v>0.19</v>
       </c>
       <c r="D63" s="39">
-        <v>100</v>
+        <v>3299.99</v>
       </c>
       <c r="E63" s="37">
         <v>11</v>
       </c>
       <c r="F63" s="39">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>36299.89</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1668,14 +1668,14 @@
         <v>0.19</v>
       </c>
       <c r="D64" s="39">
-        <v>100</v>
+        <v>219.99</v>
       </c>
       <c r="E64" s="37">
         <v>11</v>
       </c>
       <c r="F64" s="39">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>2419.8900000000003</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -1689,14 +1689,14 @@
         <v>0.19</v>
       </c>
       <c r="D65" s="39">
-        <v>100</v>
+        <v>655.99</v>
       </c>
       <c r="E65" s="37">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F65" s="39">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>11807.82</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1710,14 +1710,14 @@
         <v>0.19</v>
       </c>
       <c r="D66" s="39">
-        <v>100</v>
+        <v>699.99</v>
       </c>
       <c r="E66" s="37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F66" s="39">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>7699.89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1731,14 +1731,14 @@
         <v>0.19</v>
       </c>
       <c r="D67" s="39">
-        <v>100</v>
+        <v>649.99</v>
       </c>
       <c r="E67" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="39">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>3249.95</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1752,14 +1752,14 @@
         <v>0.19</v>
       </c>
       <c r="D68" s="39">
-        <v>100</v>
+        <v>789.99</v>
       </c>
       <c r="E68" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>789.99</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,14 +1773,14 @@
         <v>0.19</v>
       </c>
       <c r="D69" s="39">
-        <v>100</v>
+        <v>819.99</v>
       </c>
       <c r="E69" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="39">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>3279.96</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1794,14 +1794,14 @@
         <v>0.19</v>
       </c>
       <c r="D70" s="39">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E70" s="37">
         <v>1</v>
       </c>
       <c r="F70" s="39">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="H72" s="40">
         <f>F61+F62+F63+F64+F65+F66+F67+F68+F69+F70</f>
-        <v>8400</v>
+        <v>79216.510000000009</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="22" x14ac:dyDescent="0.3">

--- a/excelData.xlsx
+++ b/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan.elfeld/Desktop/Repo/rechnungMARSters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FE4D7-EF92-5948-B4BA-04FFDF791B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF19574-3A17-2749-9194-79DE89D5BBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="22380" windowWidth="34200" windowHeight="21360" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
@@ -224,15 +224,6 @@
     <t>Kundenaddresse</t>
   </si>
   <si>
-    <t>Ben Dover</t>
-  </si>
-  <si>
-    <t>NASAH AG</t>
-  </si>
-  <si>
-    <t>80331 München</t>
-  </si>
-  <si>
     <t>Stunden</t>
   </si>
   <si>
@@ -264,6 +255,15 @@
   </si>
   <si>
     <t>Lieferanten Packetbeschreibung</t>
+  </si>
+  <si>
+    <t>Spaceone Corp.</t>
+  </si>
+  <si>
+    <t>Marco Peters</t>
+  </si>
+  <si>
+    <t>20537 Hamburg</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A4:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1542,11 +1542,11 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B51" s="33">
         <f>(B49/((100-B50)/100))+D79</f>
-        <v>768169.35241945332</v>
+        <v>491479.35241945332</v>
       </c>
       <c r="C51" s="31"/>
     </row>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="B53" s="33">
         <f>B51*(1+(B52/100))</f>
-        <v>914121.52937914943</v>
+        <v>584860.42937914946</v>
       </c>
       <c r="C53" s="31"/>
     </row>
     <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1824,33 +1824,33 @@
         <v>40</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" s="44">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C75" s="45">
         <v>1200</v>
       </c>
       <c r="D75" s="45">
         <f>B75*C75</f>
-        <v>180000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B76" s="44">
         <v>85</v>
@@ -1865,43 +1865,43 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B77" s="44">
-        <v>300</v>
+        <v>118.85</v>
       </c>
       <c r="C77" s="44">
         <v>600</v>
       </c>
       <c r="D77" s="45">
         <f>B77*C77</f>
-        <v>180000</v>
+        <v>71310</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B78" s="44">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C78" s="45">
         <v>1000</v>
       </c>
       <c r="D78" s="45">
         <f>B78*C78</f>
-        <v>200000</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="47">
         <f>D75+D76+D77+D78</f>
-        <v>636500</v>
+        <v>359810</v>
       </c>
     </row>
   </sheetData>
